--- a/hw6_PSO/one_min_Results.xlsx
+++ b/hw6_PSO/one_min_Results.xlsx
@@ -428,7 +428,9 @@
       <c r="A5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>16.131</v>
+      </c>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n"/>
@@ -438,7 +440,9 @@
       <c r="A6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>468914323.342</v>
+      </c>
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
@@ -505,7 +509,9 @@
       <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>8683.25</v>
+      </c>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
@@ -515,7 +521,9 @@
       <c r="A11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>67776.246</v>
+      </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
@@ -525,7 +533,9 @@
       <c r="A12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>115852.741</v>
+      </c>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
@@ -592,7 +602,9 @@
       <c r="A16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
@@ -602,7 +614,9 @@
       <c r="A17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>20.605</v>
+      </c>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
@@ -612,7 +626,9 @@
       <c r="A18" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>18.72</v>
+      </c>
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
@@ -679,7 +695,9 @@
       <c r="A22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>0.052</v>
+      </c>
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="n"/>
@@ -689,7 +707,9 @@
       <c r="A23" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="n"/>
+      <c r="B23" s="1" t="n">
+        <v>0.248</v>
+      </c>
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="n"/>
@@ -699,7 +719,9 @@
       <c r="A24" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>1115.439</v>
+      </c>
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="n"/>
@@ -766,7 +788,9 @@
       <c r="A28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="B28" s="1" t="n">
+        <v>13.929</v>
+      </c>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n"/>
@@ -776,7 +800,9 @@
       <c r="A29" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="B29" s="1" t="n">
+        <v>1587320.669</v>
+      </c>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
@@ -786,7 +812,9 @@
       <c r="A30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="B30" s="1" t="n">
+        <v>3068987.911</v>
+      </c>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
@@ -853,7 +881,9 @@
       <c r="A34" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="n"/>
+      <c r="B34" s="1" t="n">
+        <v>-3.065</v>
+      </c>
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
@@ -863,7 +893,9 @@
       <c r="A35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B35" s="1" t="n"/>
+      <c r="B35" s="1" t="n">
+        <v>524236887.91</v>
+      </c>
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="n"/>
@@ -873,7 +905,9 @@
       <c r="A36" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B36" s="1" t="n"/>
+      <c r="B36" s="1" t="n">
+        <v>49688.731</v>
+      </c>
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
